--- a/xG/Juventus_matches_2020.xlsx
+++ b/xG/Juventus_matches_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>home</t>
   </si>
@@ -115,6 +115,24 @@
     <t>2.54799</t>
   </si>
   <si>
+    <t>0.439998</t>
+  </si>
+  <si>
+    <t>2.52836</t>
+  </si>
+  <si>
+    <t>0.484378</t>
+  </si>
+  <si>
+    <t>2.71039</t>
+  </si>
+  <si>
+    <t>0.926619</t>
+  </si>
+  <si>
+    <t>0.388088</t>
+  </si>
+  <si>
     <t>0.606523</t>
   </si>
   <si>
@@ -134,6 +152,24 @@
   </si>
   <si>
     <t>0.0831584</t>
+  </si>
+  <si>
+    <t>1.64625</t>
+  </si>
+  <si>
+    <t>1.34238</t>
+  </si>
+  <si>
+    <t>3.60091</t>
+  </si>
+  <si>
+    <t>0.902039</t>
+  </si>
+  <si>
+    <t>2.80045</t>
+  </si>
+  <si>
+    <t>1.53117</t>
   </si>
   <si>
     <t>3</t>
@@ -546,13 +582,13 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -569,13 +605,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -603,13 +639,13 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -626,13 +662,13 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -649,13 +685,13 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -672,13 +708,13 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -695,13 +731,13 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -714,6 +750,18 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -725,6 +773,18 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
@@ -736,6 +796,18 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -747,6 +819,18 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -758,6 +842,18 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -768,6 +864,18 @@
       </c>
       <c r="C15" t="s">
         <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7">
